--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.61</v>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2397,13 +2440,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2901,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,17 +2913,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2932,14 +2953,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2948,14 +2991,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -2964,13 +3097,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3034,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,17 +3046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3065,14 +3086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3081,14 +3124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.96</v>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3097,14 +3162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.61</v>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3113,13 +3200,871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>5.32</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.96</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.69</v>
       </c>
     </row>
@@ -566,6 +583,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +3292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +3842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +5000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
+++ b/数据整理/stocks/A股/创业板/300973-立高食品.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>6.15</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>5.32</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.96</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.69</v>
       </c>
     </row>
@@ -583,6 +600,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>017099</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>017177</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2232,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3160,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3292,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3842,7 +5431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5000,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
